--- a/Analytics/data/fga-eps-mds-2021-2-SiGeD-DATASET-23-03-2021-24-05-2021-excel.xlsx
+++ b/Analytics/data/fga-eps-mds-2021-2-SiGeD-DATASET-23-03-2021-24-05-2021-excel.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,22 +435,31 @@
       <c r="C1" t="n">
         <v>0.9101796407185628</v>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>2021-2-SiGeD-Frontend</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>44635</v>
       </c>
-      <c r="F1" t="n">
-        <v>0.3850891709407295</v>
-      </c>
       <c r="G1" t="n">
-        <v>0.3850891709407295</v>
+        <v>13455</v>
       </c>
       <c r="H1" t="n">
-        <v>0.3850891709407295</v>
+        <v>0.5295808383233533</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.2647904191616767</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -463,22 +472,31 @@
       <c r="C2" t="n">
         <v>0.9101796407185628</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-2-SiGeD-Frontend</t>
         </is>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>44636</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.3850891709407295</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.3850891709407295</v>
+        <v>80730</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3850891709407295</v>
+        <v>0.5295808383233533</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2647904191616767</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,22 +509,31 @@
       <c r="C3" t="n">
         <v>0.9294117647058824</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-2-SiGeD-Frontend</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="F3" s="1" t="n">
         <v>44639</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.3925806431496318</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.3925806431496318</v>
+        <v>13424</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3925806431496318</v>
+        <v>0.5396470588235294</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2698235294117647</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -519,22 +546,31 @@
       <c r="C4" t="n">
         <v>0.9294117647058824</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-2-SiGeD-Frontend</t>
         </is>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="F4" s="1" t="n">
         <v>44650</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.3925806431496318</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.3925806431496318</v>
+        <v>26848</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3925806431496318</v>
+        <v>0.5396470588235294</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2698235294117647</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -547,167 +583,221 @@
       <c r="C5" t="n">
         <v>0.9294117647058824</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-2-SiGeD-Frontend</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>44655</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.3925806431496318</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.3925806431496318</v>
+        <v>13502</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3925806431496318</v>
+        <v>0.5396470588235294</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2698235294117647</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.625</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Users</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3978781542444872</v>
+        <v>0.9239766081871345</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Frontend</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>44657</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3978781542444872</v>
+        <v>13746</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3978781542444872</v>
+        <v>0.5384210526315789</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2692105263157895</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Clients</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>44636</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.401103939147947</v>
+        <v>0.9239766081871345</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Frontend</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>44664</v>
       </c>
       <c r="G7" t="n">
-        <v>0.401103939147947</v>
+        <v>27870</v>
       </c>
       <c r="H7" t="n">
-        <v>0.401103939147947</v>
+        <v>0.5384210526315789</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2692105263157895</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Clients</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.401103939147947</v>
+        <v>0.9244186046511628</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Frontend</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>44670</v>
       </c>
       <c r="G8" t="n">
-        <v>0.401103939147947</v>
+        <v>14049</v>
       </c>
       <c r="H8" t="n">
-        <v>0.401103939147947</v>
+        <v>0.5391279069767443</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2695639534883721</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Demands</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>44623</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4118491864748551</v>
+        <v>0.9244186046511628</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Frontend</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>44671</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4118491864748551</v>
+        <v>28098</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4118491864748551</v>
+        <v>0.5391279069767443</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2695639534883721</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7</v>
+        <v>0.7052023121387283</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Demands</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>44636</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4118491864748551</v>
+        <v>0.9248554913294798</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Frontend</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>44678</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4118491864748551</v>
+        <v>57448</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4118491864748551</v>
+        <v>0.5398265895953758</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2699132947976879</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -715,27 +805,32 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Demands</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>44639</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4118491864748551</v>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Users</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>44638</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4118491864748551</v>
+        <v>324</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4118491864748551</v>
-      </c>
+        <v>0.53625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -743,27 +838,32 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Demands</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>44650</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4118491864748551</v>
+      <c r="D12" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Clients</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>44636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4118491864748551</v>
+        <v>1410</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4118491864748551</v>
-      </c>
+        <v>0.5421428571428571</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -771,27 +871,32 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Demands</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>44655</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.4118491864748551</v>
+      <c r="D13" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Clients</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>44638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4118491864748551</v>
+        <v>1502</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4118491864748551</v>
-      </c>
+        <v>0.5421428571428571</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -799,27 +904,32 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2021-2-SiGeD-Sectors</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.4055043334471833</v>
+      <c r="D14" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Clients</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>44664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4055043334471833</v>
+        <v>1502</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4055043334471833</v>
-      </c>
+        <v>0.5421428571428571</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -827,23 +937,292 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Demands</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>44623</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2872</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5609999999999999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Demands</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>44636</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2874</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5609999999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Demands</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1406</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5609999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Demands</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1406</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5609999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Demands</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>44655</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5609999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Demands</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>44664</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3064</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5445</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Demands</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>44678</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3086</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5445</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2021-2-SiGeD-Sectors</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>44638</v>
+      </c>
+      <c r="G22" t="n">
+        <v>155</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2021-2-SiGeD-Cargos</t>
         </is>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="F23" s="1" t="n">
         <v>44638</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.4055043334471833</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4055043334471833</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4055043334471833</v>
-      </c>
+      <c r="G23" t="n">
+        <v>150</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
